--- a/my-app/notebook/AI_responses/experiment 3 - larger sample with constant prediction/labelled/est_out_gpt4_prompt_1_20230530-162340.xlsx
+++ b/my-app/notebook/AI_responses/experiment 3 - larger sample with constant prediction/labelled/est_out_gpt4_prompt_1_20230530-162340.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WTX\workspace\fermi-aid-tree\my-app\notebook\AI_responses\experiment 3 - larger sample with constant prediction\labelled\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6A6D29F7-33EB-497F-8BE1-DFD498A4228D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0856F7-650C-4D58-960A-E72254C20F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView minimized="1" xWindow="2895" yWindow="2010" windowWidth="20145" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="est_out_prompt_1_20230530-16234" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="334">
   <si>
     <t>Question</t>
   </si>
@@ -2619,11 +2632,20 @@
   <si>
     <t>Validity Score</t>
   </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>exponential growth</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3107,11 +3129,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3157,7 +3188,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3168,6 +3206,37 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CEB5A08-3427-4A1C-A4A2-1E33BD5AED3F}" name="Table1" displayName="Table1" ref="A1:L101" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L101" xr:uid="{9CEB5A08-3427-4A1C-A4A2-1E33BD5AED3F}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="off"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{18F82282-3E26-4EE7-B249-1D926C5261D2}" name="Question"/>
+    <tableColumn id="2" xr3:uid="{56D79163-0F77-46FF-94D8-6C83AF4694C5}" name="Answer"/>
+    <tableColumn id="3" xr3:uid="{8305DC06-1C20-46BF-9445-7955C856BF96}" name="filter_response"/>
+    <tableColumn id="4" xr3:uid="{01E02690-051E-4107-8CE2-FAB5F39C4C00}" name="filter_dict"/>
+    <tableColumn id="5" xr3:uid="{29C28C3E-C968-4440-9D23-B68BC8BE562F}" name="E1"/>
+    <tableColumn id="6" xr3:uid="{2697BBE2-B9C5-437C-8078-CE6CE02A9BEC}" name="E2"/>
+    <tableColumn id="7" xr3:uid="{0C40DFFE-BAC0-4177-8B97-12BF8B8E214E}" name="E3"/>
+    <tableColumn id="8" xr3:uid="{15079D77-1F93-477F-87AF-D6671B277C42}" name="Prompt_1_result"/>
+    <tableColumn id="9" xr3:uid="{322938BC-B3A8-4FFA-A936-59804FAAD093}" name="GPT4_Prompt_1_result"/>
+    <tableColumn id="10" xr3:uid="{1D647E66-9EF9-40E0-9848-8E9B4B42BEB7}" name="Score">
+      <calculatedColumnFormula>MAX(0, 1-ABS((I2-$B2))/3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{166BB487-2A7B-4C2F-A6BF-BD8692CA1E13}" name="Close">
+      <calculatedColumnFormula>IF(ABS(I2-B2)&lt;=1, "good", IF(ABS(I2-B2)&gt;=3, "off"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{C7E153F1-D006-49D0-9314-F3C09F6F2F80}" name="Column1" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3466,21 +3535,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="115.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="23.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3508,11 +3582,17 @@
       <c r="I1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3540,12 +3620,16 @@
       <c r="I2" s="1">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <f>MAX(0, 1-ABS((I2-$B2))/3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="str">
+        <f>IF(ABS(I2-B2)&lt;=1, "good", IF(ABS(I2-B2)&gt;=3, "off"))</f>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3573,12 +3657,16 @@
       <c r="I3" s="1">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <f t="shared" ref="J3:J66" si="0">MAX(0, 1-ABS((I3-$B3))/3)</f>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="str">
+        <f t="shared" ref="K3:K66" si="1">IF(ABS(I3-B3)&lt;=1, "good", IF(ABS(I3-B3)&gt;=3, "off"))</f>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3606,12 +3694,16 @@
       <c r="I4" s="1">
         <v>-2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3639,12 +3731,16 @@
       <c r="I5" s="1">
         <v>12</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -3672,12 +3768,16 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="390" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -3699,18 +3799,22 @@
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3738,12 +3842,16 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -3771,12 +3879,16 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -3804,12 +3916,16 @@
       <c r="I10" s="1">
         <v>4</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -3837,12 +3953,16 @@
       <c r="I11" s="1">
         <v>18</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -3870,12 +3990,16 @@
       <c r="I12" s="1">
         <v>2</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -3903,12 +4027,16 @@
       <c r="I13" s="1">
         <v>5</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="330" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -3936,12 +4064,16 @@
       <c r="I14" s="1">
         <v>18</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -3969,45 +4101,53 @@
       <c r="I15" s="1">
         <v>2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
@@ -4029,51 +4169,59 @@
       <c r="G17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="4" t="s">
         <v>63</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>12</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>10</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -4101,12 +4249,16 @@
       <c r="I19" s="1">
         <v>-9</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -4134,12 +4286,16 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
@@ -4167,45 +4323,53 @@
       <c r="I21" s="1">
         <v>1.74</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <f t="shared" si="0"/>
         <v>0.91333333333333333</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>10</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>8</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,16 +4397,20 @@
       <c r="I23" s="1">
         <v>19</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>-1</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -4266,12 +4434,16 @@
       <c r="I24" s="1">
         <v>-10</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
@@ -4299,12 +4471,16 @@
       <c r="I25" s="1">
         <v>11</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>95</v>
       </c>
@@ -4332,45 +4508,53 @@
       <c r="I26" s="1">
         <v>7</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>3</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="330" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
@@ -4398,12 +4582,16 @@
       <c r="I28" s="1">
         <v>21.7</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
@@ -4431,12 +4619,16 @@
       <c r="I29" s="1">
         <v>-9</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>112</v>
       </c>
@@ -4464,12 +4656,16 @@
       <c r="I30" s="1">
         <v>3</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
@@ -4497,12 +4693,16 @@
       <c r="I31" s="1">
         <v>5</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>119</v>
       </c>
@@ -4530,78 +4730,90 @@
       <c r="I32" s="1">
         <v>1</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>99</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" t="s">
         <v>122</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>2</v>
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="K33" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" t="s">
         <v>124</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>4</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="330" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>125</v>
       </c>
@@ -4629,45 +4841,53 @@
       <c r="I35" s="1">
         <v>19</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
         <v>110</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" t="s">
         <v>133</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
         <v>2</v>
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>134</v>
       </c>
@@ -4695,12 +4915,16 @@
       <c r="I37" s="1">
         <v>5</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>136</v>
       </c>
@@ -4728,12 +4952,16 @@
       <c r="I38" s="1">
         <v>6</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>138</v>
       </c>
@@ -4761,45 +4989,53 @@
       <c r="I39" s="1">
         <v>1.5</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>9</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" t="s">
         <v>141</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>7</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>142</v>
       </c>
@@ -4827,12 +5063,16 @@
       <c r="I41" s="1">
         <v>2048</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>144</v>
       </c>
@@ -4860,12 +5100,16 @@
       <c r="I42" s="1">
         <v>5</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>146</v>
       </c>
@@ -4893,12 +5137,16 @@
       <c r="I43" s="1">
         <v>4</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>151</v>
       </c>
@@ -4926,12 +5174,16 @@
       <c r="I44" s="1">
         <v>19</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>153</v>
       </c>
@@ -4959,49 +5211,57 @@
       <c r="I45" s="1">
         <v>5</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>7</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>157</v>
       </c>
-      <c r="E46" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" t="s">
         <v>158</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>5</v>
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="K46" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -5025,78 +5285,90 @@
       <c r="I47" s="1">
         <v>-3</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="K47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>3</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>166</v>
       </c>
-      <c r="E48" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
         <v>98</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s">
         <v>117</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" t="s">
         <v>167</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>1</v>
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="K48" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>168</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>2</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
         <v>110</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" t="s">
         <v>149</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" t="s">
         <v>169</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>170</v>
       </c>
@@ -5124,12 +5396,16 @@
       <c r="I50" s="1">
         <v>8</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>172</v>
       </c>
@@ -5157,12 +5433,16 @@
       <c r="I51" s="1">
         <v>10</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>174</v>
       </c>
@@ -5190,12 +5470,16 @@
       <c r="I52" s="1">
         <v>11</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="390" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>179</v>
       </c>
@@ -5223,12 +5507,16 @@
       <c r="I53" s="1">
         <v>2</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>181</v>
       </c>
@@ -5256,12 +5544,16 @@
       <c r="I54" s="1">
         <v>8</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>183</v>
       </c>
@@ -5289,12 +5581,16 @@
       <c r="I55" s="1">
         <v>10</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>185</v>
       </c>
@@ -5322,12 +5618,16 @@
       <c r="I56" s="1">
         <v>30</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>191</v>
       </c>
@@ -5355,12 +5655,16 @@
       <c r="I57" s="1">
         <v>4</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>193</v>
       </c>
@@ -5388,45 +5692,53 @@
       <c r="I58" s="1">
         <v>19</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="K58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>198</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>5</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1" t="s">
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" t="s">
         <v>199</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59">
         <v>3</v>
       </c>
       <c r="J59">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>200</v>
       </c>
@@ -5448,18 +5760,22 @@
       <c r="G60" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>205</v>
       </c>
@@ -5487,12 +5803,16 @@
       <c r="I61" s="1">
         <v>1</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>211</v>
       </c>
@@ -5520,12 +5840,16 @@
       <c r="I62" s="1">
         <v>2</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="345" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>216</v>
       </c>
@@ -5553,12 +5877,16 @@
       <c r="I63" s="1">
         <v>-6</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>218</v>
       </c>
@@ -5586,45 +5914,53 @@
       <c r="I64" s="1">
         <v>5</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="K64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>220</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>6</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" t="s">
         <v>221</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65">
         <v>8</v>
       </c>
       <c r="J65">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>222</v>
       </c>
@@ -5652,12 +5988,16 @@
       <c r="I66" s="1">
         <v>5</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>227</v>
       </c>
@@ -5685,12 +6025,16 @@
       <c r="I67" s="1">
         <v>19</v>
       </c>
-      <c r="J67">
-        <f t="shared" ref="J67:J101" si="1">MAX(0, 1-ABS((I67-$B67))/3)</f>
+      <c r="J67" s="1">
+        <f t="shared" ref="J67:J101" si="2">MAX(0, 1-ABS((I67-$B67))/3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="1" t="str">
+        <f t="shared" ref="K67:K101" si="3">IF(ABS(I67-B67)&lt;=1, "good", IF(ABS(I67-B67)&gt;=3, "off"))</f>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>229</v>
       </c>
@@ -5718,12 +6062,16 @@
       <c r="I68" s="1">
         <v>14</v>
       </c>
-      <c r="J68">
-        <f t="shared" si="1"/>
+      <c r="J68" s="1">
+        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>231</v>
       </c>
@@ -5751,12 +6099,16 @@
       <c r="I69" s="1">
         <v>10</v>
       </c>
-      <c r="J69">
-        <f t="shared" si="1"/>
+      <c r="J69" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>236</v>
       </c>
@@ -5784,16 +6136,20 @@
       <c r="I70" s="1">
         <v>8</v>
       </c>
-      <c r="J70">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="J70" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -5817,16 +6173,20 @@
       <c r="I71" s="1">
         <v>5</v>
       </c>
-      <c r="J71">
-        <f t="shared" si="1"/>
+      <c r="J71" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="K71" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>6</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -5850,12 +6210,16 @@
       <c r="I72" s="1">
         <v>9</v>
       </c>
-      <c r="J72">
-        <f t="shared" si="1"/>
+      <c r="J72" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>246</v>
       </c>
@@ -5883,12 +6247,16 @@
       <c r="I73" s="1">
         <v>5</v>
       </c>
-      <c r="J73">
-        <f t="shared" si="1"/>
+      <c r="J73" s="1">
+        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>248</v>
       </c>
@@ -5916,16 +6284,20 @@
       <c r="I74" s="1">
         <v>5.3</v>
       </c>
-      <c r="J74">
-        <f t="shared" si="1"/>
+      <c r="J74" s="1">
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="K74" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>-29</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -5949,12 +6321,16 @@
       <c r="I75" s="1">
         <v>2</v>
       </c>
-      <c r="J75">
-        <f t="shared" si="1"/>
+      <c r="J75" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>252</v>
       </c>
@@ -5982,13 +6358,17 @@
       <c r="I76" s="1">
         <v>7</v>
       </c>
-      <c r="J76">
-        <f t="shared" si="1"/>
+      <c r="J76" s="1">
+        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="K76" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B77" s="1">
@@ -6015,12 +6395,19 @@
       <c r="I77" s="1">
         <v>1.52</v>
       </c>
-      <c r="J77">
-        <f t="shared" si="1"/>
+      <c r="J77" s="1">
+        <f t="shared" si="2"/>
         <v>0.84</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>256</v>
       </c>
@@ -6048,12 +6435,16 @@
       <c r="I78" s="1">
         <v>5.5</v>
       </c>
-      <c r="J78">
-        <f t="shared" si="1"/>
+      <c r="J78" s="1">
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>261</v>
       </c>
@@ -6081,12 +6472,16 @@
       <c r="I79" s="1">
         <v>11</v>
       </c>
-      <c r="J79">
-        <f t="shared" si="1"/>
+      <c r="J79" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="390" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>267</v>
       </c>
@@ -6114,45 +6509,53 @@
       <c r="I80" s="1">
         <v>6</v>
       </c>
-      <c r="J80">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="J80" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K80" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>269</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>3</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>270</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>271</v>
       </c>
-      <c r="E81" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F81" s="1" t="s">
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
         <v>25</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" t="s">
         <v>272</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" t="s">
         <v>273</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81">
         <v>1.7</v>
       </c>
       <c r="J81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56666666666666665</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>274</v>
       </c>
@@ -6180,12 +6583,16 @@
       <c r="I82" s="1">
         <v>46</v>
       </c>
-      <c r="J82">
-        <f t="shared" si="1"/>
+      <c r="J82" s="1">
+        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>276</v>
       </c>
@@ -6213,12 +6620,16 @@
       <c r="I83" s="1">
         <v>6</v>
       </c>
-      <c r="J83">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J83" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K83" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>278</v>
       </c>
@@ -6246,12 +6657,16 @@
       <c r="I84" s="1">
         <v>1</v>
       </c>
-      <c r="J84">
-        <f t="shared" si="1"/>
+      <c r="J84" s="1">
+        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>282</v>
       </c>
@@ -6279,16 +6694,20 @@
       <c r="I85" s="1">
         <v>2</v>
       </c>
-      <c r="J85">
-        <f t="shared" si="1"/>
+      <c r="J85" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="K85" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="405" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -6312,12 +6731,16 @@
       <c r="I86" s="1">
         <v>1</v>
       </c>
-      <c r="J86">
-        <f t="shared" si="1"/>
+      <c r="J86" s="1">
+        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>289</v>
       </c>
@@ -6345,12 +6768,16 @@
       <c r="I87" s="1">
         <v>33</v>
       </c>
-      <c r="J87">
-        <f t="shared" si="1"/>
+      <c r="J87" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>291</v>
       </c>
@@ -6378,12 +6805,16 @@
       <c r="I88" s="1">
         <v>2</v>
       </c>
-      <c r="J88">
-        <f t="shared" si="1"/>
+      <c r="J88" s="1">
+        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>293</v>
       </c>
@@ -6411,12 +6842,16 @@
       <c r="I89" s="1">
         <v>43.2</v>
       </c>
-      <c r="J89">
-        <f t="shared" si="1"/>
+      <c r="J89" s="1">
+        <f t="shared" si="2"/>
         <v>0.93333333333333235</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>295</v>
       </c>
@@ -6444,12 +6879,16 @@
       <c r="I90" s="1">
         <v>18</v>
       </c>
-      <c r="J90">
-        <f t="shared" si="1"/>
+      <c r="J90" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>297</v>
       </c>
@@ -6477,45 +6916,53 @@
       <c r="I91" s="1">
         <v>10</v>
       </c>
-      <c r="J91">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="J91" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K91" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>299</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92">
         <v>9</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F92" s="1" t="s">
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" t="s">
         <v>12</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H92" t="s">
         <v>300</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I92">
         <v>7</v>
       </c>
       <c r="J92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>301</v>
       </c>
@@ -6543,12 +6990,16 @@
       <c r="I93" s="1">
         <v>9</v>
       </c>
-      <c r="J93">
-        <f t="shared" si="1"/>
+      <c r="J93" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>off</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>303</v>
       </c>
@@ -6576,12 +7027,16 @@
       <c r="I94" s="1">
         <v>6</v>
       </c>
-      <c r="J94">
-        <f t="shared" si="1"/>
+      <c r="J94" s="1">
+        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>305</v>
       </c>
@@ -6609,12 +7064,16 @@
       <c r="I95" s="1">
         <v>16</v>
       </c>
-      <c r="J95">
-        <f t="shared" si="1"/>
+      <c r="J95" s="1">
+        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="345" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>310</v>
       </c>
@@ -6642,12 +7101,16 @@
       <c r="I96" s="1">
         <v>2</v>
       </c>
-      <c r="J96">
-        <f t="shared" si="1"/>
+      <c r="J96" s="1">
+        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>314</v>
       </c>
@@ -6675,12 +7138,16 @@
       <c r="I97" s="1">
         <v>2</v>
       </c>
-      <c r="J97">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J97" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K97" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>316</v>
       </c>
@@ -6708,12 +7175,16 @@
       <c r="I98" s="1">
         <v>1</v>
       </c>
-      <c r="J98">
-        <f t="shared" si="1"/>
+      <c r="J98" s="1">
+        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>318</v>
       </c>
@@ -6741,12 +7212,16 @@
       <c r="I99" s="1">
         <v>4</v>
       </c>
-      <c r="J99">
-        <f t="shared" si="1"/>
+      <c r="J99" s="1">
+        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="345" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>320</v>
       </c>
@@ -6774,12 +7249,16 @@
       <c r="I100" s="1">
         <v>10</v>
       </c>
-      <c r="J100">
-        <f t="shared" si="1"/>
+      <c r="J100" s="1">
+        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>322</v>
       </c>
@@ -6807,30 +7286,37 @@
       <c r="I101" s="1">
         <v>1</v>
       </c>
-      <c r="J101">
-        <f t="shared" si="1"/>
+      <c r="J101" s="1">
+        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I102" t="s">
+      <c r="K101" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>good</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I102" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="J102" cm="1">
+      <c r="J102" s="1" cm="1">
         <f t="array" ref="J102">AVERAGE(IF(ISERROR(J2:J101),"",J2:J101))</f>
         <v>0.47153333333333319</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I103" t="s">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I103" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="1">
         <f>1-(COUNTIF(J2:J101, "=#VALUE!"))/COUNT(B2:B101)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>